--- a/azota_assets/medias_vi/de_mau_azota_excel_v2_4.xlsx
+++ b/azota_assets/medias_vi/de_mau_azota_excel_v2_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bich Dinh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThuyTrang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD536801-30F8-4CCD-B889-EB22329562E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF7E6D-912A-41FB-8D93-011180BAD5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="90">
   <si>
     <t>001</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Để nhập đúng định dạng đáp án, thầy/cô vui lòng tham khảo bảng đáp án bên cạnh</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -382,11 +388,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,11 +400,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,30 +747,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +807,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -841,7 +847,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -881,7 +887,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,17 +918,17 @@
       <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,16 +959,16 @@
       <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,16 +999,16 @@
       <c r="J7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1046,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1084,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1122,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1160,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1198,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1306,7 +1312,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1344,7 +1350,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +1388,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1458,7 +1464,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1502,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1540,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1610,7 +1616,7 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1654,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1686,7 +1692,7 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1724,7 +1730,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1762,7 +1768,7 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1800,7 +1806,7 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1838,7 +1844,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1876,7 +1882,7 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +1920,7 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -1990,7 +1996,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2028,7 +2034,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -2066,7 +2072,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -2104,7 +2110,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -2142,7 +2148,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -2180,7 +2186,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2218,7 +2224,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -2256,7 +2262,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -2294,7 +2300,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
@@ -2332,7 +2338,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -2370,7 +2376,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -2408,7 +2414,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -2446,7 +2452,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -2484,7 +2490,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2522,7 +2528,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2560,7 +2566,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -2598,7 +2604,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -2636,7 +2642,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -2674,7 +2680,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -2834,9 +2840,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>18</v>
@@ -2866,9 +2872,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>18</v>
@@ -2898,9 +2904,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>18</v>
@@ -2932,15 +2938,30 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L50:Q50"/>
     <mergeCell ref="L51:Q51"/>
     <mergeCell ref="L33:Q33"/>
@@ -2957,30 +2978,15 @@
     <mergeCell ref="L46:Q46"/>
     <mergeCell ref="L47:Q47"/>
     <mergeCell ref="L48:Q48"/>
-    <mergeCell ref="L49:Q49"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
